--- a/1_PreCondition.xlsx
+++ b/1_PreCondition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro4410_ox_ac_uk/Documents/2023 – NAP Study/TCET_Task/V3_3Faces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro4410_ox_ac_uk/Documents/2023 – NAP Study/TCET_Task/TCET_Sharif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{BE4B013B-DC1B-1C40-8F76-9E74C76DF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A83545-1DCE-6241-BCD4-5F91CEF49279}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{BE4B013B-DC1B-1C40-8F76-9E74C76DF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F598FB13-F84C-1946-83A0-3561E7CB0608}"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="-20980" windowWidth="28800" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -480,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -488,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -496,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -504,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -512,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -520,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -528,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -536,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -544,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -608,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -632,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -640,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -648,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -656,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -664,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -672,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -680,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -688,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -696,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -704,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="7">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="7">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="7">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -737,9 +741,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,26 +934,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -970,9 +966,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>